--- a/testCase/sqsrmyyadmin/searchDocManDoctor.xlsx
+++ b/testCase/sqsrmyyadmin/searchDocManDoctor.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="searchDocManDoctor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -984,7 +984,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
